--- a/doc/EA.xlsx
+++ b/doc/EA.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>演员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,90 @@
   </si>
   <si>
     <t>外射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ea6.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周推特大奶抽汁超强合集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人妻 外射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ea7.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金发爆乳尤物大翘臀都被啪得通红了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约炮 女上位 后入 外射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ea8.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骚气女友化身求精饥渴母狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女子校生 后入 颜射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ea9.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥哥在自慰被我抓到就让我来榨干他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝莉 女子校生 女上位 外射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ea10.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一视角-控制不住喷射弄脏了女友的肚皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝莉 女子校生 外射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ea11.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金发美女在车里被大屌司机顶到底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车震 约炮 丝袜 后入 外射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ea12.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力肆虐我的黑丝女友然后在丝袜上射精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝袜 萝莉 后入 外射</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" thickTop="1" thickBottom="1" x14ac:dyDescent="0.25"/>
@@ -725,73 +809,157 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="26.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="11"/>
+      <c r="G7" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="26.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="26.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="26.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="11"/>
+      <c r="G10" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="26.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="26.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="26.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="26.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
